--- a/downloads/Simple Balance Sheet Template.xlsx
+++ b/downloads/Simple Balance Sheet Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peent/Desktop/HTML stuff/Senior Project /downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF96ABB-D542-0140-AC65-AC74ABCBC9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2133BD-81F1-DE4D-BD15-7E9BF5BFBB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="500" windowWidth="19720" windowHeight="21100" activeTab="1" xr2:uid="{98925724-449B-264C-B27E-4C78D54C98F8}"/>
+    <workbookView xWindow="13420" yWindow="2100" windowWidth="19720" windowHeight="21100" activeTab="1" xr2:uid="{98925724-449B-264C-B27E-4C78D54C98F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Balance Sheet Template" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -348,10 +348,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -361,9 +364,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -711,32 +711,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -808,10 +808,10 @@
     </row>
     <row r="20" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -872,10 +872,10 @@
       <c r="B32" s="5"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="13"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
@@ -920,7 +920,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -930,32 +930,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -966,7 +966,7 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="10">
         <v>45000</v>
       </c>
     </row>
@@ -974,7 +974,7 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="10">
         <v>12000</v>
       </c>
     </row>
@@ -982,7 +982,7 @@
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="10">
         <v>25000</v>
       </c>
     </row>
@@ -990,7 +990,7 @@
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="10">
         <v>50000</v>
       </c>
     </row>
@@ -998,7 +998,7 @@
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="10">
         <v>65000</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="11">
         <f>SUM(B7:B11)</f>
         <v>197000</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="10">
         <v>80000</v>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="10">
         <v>25000</v>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="11">
         <f>SUM(B15:B17)</f>
         <v>105000</v>
       </c>
@@ -1050,17 +1050,17 @@
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="12">
         <f>B12+B18</f>
         <v>302000</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -1071,7 +1071,7 @@
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="10">
         <v>22000</v>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="10">
         <v>7500</v>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="10">
         <v>2200</v>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="10">
         <v>10000</v>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="11">
         <f>SUM(B23:B26)</f>
         <v>41700</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="10">
         <v>92000</v>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       <c r="A30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="10">
         <v>25000</v>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       <c r="A31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="11">
         <f>B29+B30</f>
         <v>117000</v>
       </c>
@@ -1142,22 +1142,22 @@
       <c r="A32" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="11">
         <f>B27 + B31</f>
         <v>158700</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="13"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="10">
         <v>100000</v>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="10">
         <v>43300</v>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="11">
         <f>B35+B36</f>
         <v>143300</v>
       </c>
@@ -1182,7 +1182,7 @@
       <c r="A38" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="12">
         <f>B32+B37</f>
         <v>302000</v>
       </c>
